--- a/Code/Results/Cases/Case_3_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.128430024764441</v>
+        <v>0.5513548631581955</v>
       </c>
       <c r="C2">
-        <v>0.1185496873223642</v>
+        <v>0.1624190934874861</v>
       </c>
       <c r="D2">
-        <v>0.1439616387718416</v>
+        <v>0.2082656351497434</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6007066340535019</v>
+        <v>1.372022138432399</v>
       </c>
       <c r="G2">
-        <v>0.3418155714037141</v>
+        <v>0.7516564130985017</v>
       </c>
       <c r="H2">
-        <v>0.3224828260587387</v>
+        <v>0.8580028273867129</v>
       </c>
       <c r="I2">
-        <v>0.3504905056483594</v>
+        <v>0.885749898241535</v>
       </c>
       <c r="J2">
-        <v>0.07892538224739098</v>
+        <v>0.2057898918912713</v>
       </c>
       <c r="K2">
-        <v>0.9736168956783047</v>
+        <v>0.3242496028636594</v>
       </c>
       <c r="L2">
-        <v>0.2717550717245985</v>
+        <v>0.3476246894521893</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.346691370832204</v>
+        <v>3.228388186044896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9821074719068292</v>
+        <v>0.5071859174208839</v>
       </c>
       <c r="C3">
-        <v>0.1164449563215015</v>
+        <v>0.1618322943610764</v>
       </c>
       <c r="D3">
-        <v>0.1307133195778079</v>
+        <v>0.2054934232637038</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.596474086515336</v>
+        <v>1.380446964905893</v>
       </c>
       <c r="G3">
-        <v>0.3432787826731882</v>
+        <v>0.7581792986712941</v>
       </c>
       <c r="H3">
-        <v>0.3288468903862594</v>
+        <v>0.8646797307768637</v>
       </c>
       <c r="I3">
-        <v>0.3607777639300238</v>
+        <v>0.8945297417896505</v>
       </c>
       <c r="J3">
-        <v>0.07947796695621179</v>
+        <v>0.2071058191985919</v>
       </c>
       <c r="K3">
-        <v>0.8514760543075681</v>
+        <v>0.2854423381356241</v>
       </c>
       <c r="L3">
-        <v>0.2446479909093</v>
+        <v>0.3416159085320345</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.362778258413485</v>
+        <v>3.255956297056727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8922752932094795</v>
+        <v>0.4801105707411466</v>
       </c>
       <c r="C4">
-        <v>0.1151839970136592</v>
+        <v>0.1614883107873837</v>
       </c>
       <c r="D4">
-        <v>0.1226665904825381</v>
+        <v>0.2038638569240305</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5949188608610498</v>
+        <v>1.386259559993611</v>
       </c>
       <c r="G4">
-        <v>0.3449494563803697</v>
+        <v>0.7626067025994772</v>
       </c>
       <c r="H4">
-        <v>0.3332408255393915</v>
+        <v>0.8690971644646552</v>
       </c>
       <c r="I4">
-        <v>0.3677617711825398</v>
+        <v>0.9003183030509945</v>
       </c>
       <c r="J4">
-        <v>0.0799236539518553</v>
+        <v>0.2079874840256437</v>
       </c>
       <c r="K4">
-        <v>0.7763876696091074</v>
+        <v>0.2615550756848108</v>
       </c>
       <c r="L4">
-        <v>0.2281734456144733</v>
+        <v>0.3380536345962497</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.375302551842125</v>
+        <v>3.274435550144787</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8556626576384758</v>
+        <v>0.4690892446665771</v>
       </c>
       <c r="C5">
-        <v>0.1146778712217156</v>
+        <v>0.1613522728317065</v>
       </c>
       <c r="D5">
-        <v>0.1194084230399142</v>
+        <v>0.2032181533383124</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5945390275266362</v>
+        <v>1.388789268338662</v>
       </c>
       <c r="G5">
-        <v>0.3458174803080993</v>
+        <v>0.7645171223081135</v>
       </c>
       <c r="H5">
-        <v>0.3351506724827615</v>
+        <v>0.870977301197378</v>
       </c>
       <c r="I5">
-        <v>0.3707711068799568</v>
+        <v>0.9027772466252273</v>
       </c>
       <c r="J5">
-        <v>0.08013141555949588</v>
+        <v>0.2083653249548796</v>
       </c>
       <c r="K5">
-        <v>0.7457589500316573</v>
+        <v>0.2518065839901311</v>
       </c>
       <c r="L5">
-        <v>0.2214998067798035</v>
+        <v>0.3366341325845781</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.381050750276827</v>
+        <v>3.282356555811461</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8495826151029178</v>
+        <v>0.4672599187930473</v>
       </c>
       <c r="C6">
-        <v>0.114594291599424</v>
+        <v>0.1613299348286077</v>
       </c>
       <c r="D6">
-        <v>0.1188686393205529</v>
+        <v>0.2031120466508298</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5944910518393129</v>
+        <v>1.389219055103766</v>
       </c>
       <c r="G6">
-        <v>0.3459727232932295</v>
+        <v>0.7648407618370925</v>
       </c>
       <c r="H6">
-        <v>0.3354749195082789</v>
+        <v>0.871294330606041</v>
       </c>
       <c r="I6">
-        <v>0.3712805370336376</v>
+        <v>0.9031915971237083</v>
       </c>
       <c r="J6">
-        <v>0.08016747553278591</v>
+        <v>0.2084291866700454</v>
       </c>
       <c r="K6">
-        <v>0.7406711160547559</v>
+        <v>0.2501870153295442</v>
       </c>
       <c r="L6">
-        <v>0.2203939857138124</v>
+        <v>0.3364003727245688</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.382043555406838</v>
+        <v>3.283695427978799</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8917815539716116</v>
+        <v>0.4799618831181078</v>
       </c>
       <c r="C7">
-        <v>0.1151771401455051</v>
+        <v>0.1614864593302272</v>
       </c>
       <c r="D7">
-        <v>0.1226225663756253</v>
+        <v>0.2038550742675511</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5949127210879226</v>
+        <v>1.386293024304784</v>
       </c>
       <c r="G7">
-        <v>0.3449604138630917</v>
+        <v>0.7626320370946118</v>
       </c>
       <c r="H7">
-        <v>0.3332661033313187</v>
+        <v>0.869122196628112</v>
       </c>
       <c r="I7">
-        <v>0.3678017008704053</v>
+        <v>0.900351060023489</v>
       </c>
       <c r="J7">
-        <v>0.07992635084927713</v>
+        <v>0.2079925045536299</v>
       </c>
       <c r="K7">
-        <v>0.7759747276020903</v>
+        <v>0.2614236608250451</v>
       </c>
       <c r="L7">
-        <v>0.2280832846271181</v>
+        <v>0.3380343602643308</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.375377492013754</v>
+        <v>3.274540793947253</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.077970881461283</v>
+        <v>0.536116681562163</v>
       </c>
       <c r="C8">
-        <v>0.1178173684557464</v>
+        <v>0.162213400534192</v>
       </c>
       <c r="D8">
-        <v>0.1393746932116358</v>
+        <v>0.2072947744558888</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5990254447891843</v>
+        <v>1.374794344372184</v>
       </c>
       <c r="G8">
-        <v>0.3421555169584352</v>
+        <v>0.7538178618627782</v>
       </c>
       <c r="H8">
-        <v>0.3245743533505348</v>
+        <v>0.8602391187733289</v>
       </c>
       <c r="I8">
-        <v>0.35389618742877</v>
+        <v>0.8886946773240929</v>
       </c>
       <c r="J8">
-        <v>0.07909345358796216</v>
+        <v>0.2062283480359426</v>
       </c>
       <c r="K8">
-        <v>0.9315182958532375</v>
+        <v>0.3108816092639017</v>
       </c>
       <c r="L8">
-        <v>0.2623717357703299</v>
+        <v>0.3455265805878582</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.351675787094194</v>
+        <v>3.2375716163709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.443568577279336</v>
+        <v>0.6465559809495005</v>
       </c>
       <c r="C9">
-        <v>0.1232517239831239</v>
+        <v>0.1637669042175958</v>
       </c>
       <c r="D9">
-        <v>0.1729775827756868</v>
+        <v>0.2146117495458526</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6157712107007072</v>
+        <v>1.357314480962657</v>
       </c>
       <c r="G9">
-        <v>0.3431114057313991</v>
+        <v>0.7398836024855342</v>
       </c>
       <c r="H9">
-        <v>0.3115310699430722</v>
+        <v>0.8453370842202048</v>
       </c>
       <c r="I9">
-        <v>0.3321389275752509</v>
+        <v>0.86898969753668</v>
       </c>
       <c r="J9">
-        <v>0.07833327074549246</v>
+        <v>0.2033522471731359</v>
       </c>
       <c r="K9">
-        <v>1.236106131950152</v>
+        <v>0.4073702464062308</v>
       </c>
       <c r="L9">
-        <v>0.3310861308162032</v>
+        <v>0.3612205951800149</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.327193671414321</v>
+        <v>3.177382950138593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.713079646283234</v>
+        <v>0.7278535343180295</v>
       </c>
       <c r="C10">
-        <v>0.1274135724813945</v>
+        <v>0.1649844788054153</v>
       </c>
       <c r="D10">
-        <v>0.1982072839918629</v>
+        <v>0.2203311820310034</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6339501626733224</v>
+        <v>1.347553683468803</v>
       </c>
       <c r="G10">
-        <v>0.3482281015639757</v>
+        <v>0.7316879574948771</v>
       </c>
       <c r="H10">
-        <v>0.3045938952431229</v>
+        <v>0.8359181206427095</v>
       </c>
       <c r="I10">
-        <v>0.3198241823423089</v>
+        <v>0.8564312346105325</v>
       </c>
       <c r="J10">
-        <v>0.0783490692835791</v>
+        <v>0.2015932186799105</v>
       </c>
       <c r="K10">
-        <v>1.460101190668041</v>
+        <v>0.4779277429140905</v>
       </c>
       <c r="L10">
-        <v>0.3826665850427986</v>
+        <v>0.3733537536396909</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.324064143132574</v>
+        <v>3.140653576254991</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.836030873143784</v>
+        <v>0.7648647717423103</v>
       </c>
       <c r="C11">
-        <v>0.1293467288170618</v>
+        <v>0.1655545665190132</v>
       </c>
       <c r="D11">
-        <v>0.2098221063755972</v>
+        <v>0.2230067263702011</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6436324554475235</v>
+        <v>1.343780635219616</v>
       </c>
       <c r="G11">
-        <v>0.3516261600065391</v>
+        <v>0.7284028159038058</v>
       </c>
       <c r="H11">
-        <v>0.3020607925708845</v>
+        <v>0.8319642104098719</v>
       </c>
       <c r="I11">
-        <v>0.3150911997959511</v>
+        <v>0.8511339788050307</v>
       </c>
       <c r="J11">
-        <v>0.0784907479451995</v>
+        <v>0.2008695286905073</v>
       </c>
       <c r="K11">
-        <v>1.562163816122535</v>
+        <v>0.5099482162065954</v>
       </c>
       <c r="L11">
-        <v>0.4064162774389928</v>
+        <v>0.3790027283535835</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.326204949629783</v>
+        <v>3.125568625222158</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.882652051553265</v>
+        <v>0.778883274749802</v>
       </c>
       <c r="C12">
-        <v>0.130084771757538</v>
+        <v>0.1657727408642771</v>
       </c>
       <c r="D12">
-        <v>0.2142418086764195</v>
+        <v>0.2240303912713557</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6475140221386937</v>
+        <v>1.342447668119625</v>
       </c>
       <c r="G12">
-        <v>0.3530767276255062</v>
+        <v>0.7272225258208351</v>
       </c>
       <c r="H12">
-        <v>0.3011953995486252</v>
+        <v>0.8305144557999924</v>
       </c>
       <c r="I12">
-        <v>0.3134303265024521</v>
+        <v>0.8491877667926104</v>
       </c>
       <c r="J12">
-        <v>0.07856459912761338</v>
+        <v>0.200606459650448</v>
       </c>
       <c r="K12">
-        <v>1.600845965349833</v>
+        <v>0.5220619072255772</v>
       </c>
       <c r="L12">
-        <v>0.4154547195087162</v>
+        <v>0.3811603097088465</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.327558130385796</v>
+        <v>3.120089603774503</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.872608379677956</v>
+        <v>0.7758640144096489</v>
       </c>
       <c r="C13">
-        <v>0.129925549870002</v>
+        <v>0.1657256516378141</v>
       </c>
       <c r="D13">
-        <v>0.2132889671881912</v>
+        <v>0.2238094617371189</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6466682930951251</v>
+        <v>1.342730487686566</v>
       </c>
       <c r="G13">
-        <v>0.3527568737181142</v>
+        <v>0.7274738882992153</v>
       </c>
       <c r="H13">
-        <v>0.3013775327299157</v>
+        <v>0.8308245746383704</v>
       </c>
       <c r="I13">
-        <v>0.3137820746358351</v>
+        <v>0.8496042616720025</v>
       </c>
       <c r="J13">
-        <v>0.07854778130828777</v>
+        <v>0.200662628468411</v>
       </c>
       <c r="K13">
-        <v>1.592513437550991</v>
+        <v>0.5194535426934124</v>
       </c>
       <c r="L13">
-        <v>0.4135060655468692</v>
+        <v>0.38069481899322</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.327242075083063</v>
+        <v>3.121259234004285</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.839865106987844</v>
+        <v>0.7660180247583526</v>
       </c>
       <c r="C14">
-        <v>0.129407326275782</v>
+        <v>0.1655724700736414</v>
       </c>
       <c r="D14">
-        <v>0.2101852790166561</v>
+        <v>0.2230907342076307</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6439474125090925</v>
+        <v>1.343669051934533</v>
       </c>
       <c r="G14">
-        <v>0.351742157767795</v>
+        <v>0.7283044356249988</v>
       </c>
       <c r="H14">
-        <v>0.3019876899672909</v>
+        <v>0.8318439865277796</v>
       </c>
       <c r="I14">
-        <v>0.3149518870413708</v>
+        <v>0.8509726655682925</v>
       </c>
       <c r="J14">
-        <v>0.07849641377553951</v>
+        <v>0.2008476659913576</v>
       </c>
       <c r="K14">
-        <v>1.565345497509469</v>
+        <v>0.5109450570872411</v>
       </c>
       <c r="L14">
-        <v>0.4071589514858545</v>
+        <v>0.3791798654518601</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.326305226267479</v>
+        <v>3.125113187423338</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.819817379531571</v>
+        <v>0.7599874537105222</v>
       </c>
       <c r="C15">
-        <v>0.1290906885962144</v>
+        <v>0.165478939690189</v>
       </c>
       <c r="D15">
-        <v>0.208287019745768</v>
+        <v>0.2226518562427202</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6423091728297123</v>
+        <v>1.344256422139331</v>
       </c>
       <c r="G15">
-        <v>0.3511422488117759</v>
+        <v>0.7288214684240373</v>
       </c>
       <c r="H15">
-        <v>0.3023737813688072</v>
+        <v>0.8324745903753694</v>
       </c>
       <c r="I15">
-        <v>0.3156857408982958</v>
+        <v>0.8518186320871806</v>
       </c>
       <c r="J15">
-        <v>0.07846760675192499</v>
+        <v>0.2009624355877264</v>
       </c>
       <c r="K15">
-        <v>1.548708968701561</v>
+        <v>0.5057318087491467</v>
       </c>
       <c r="L15">
-        <v>0.4032771342850197</v>
+        <v>0.3782543080820773</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.325802947926363</v>
+        <v>3.127504226891659</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.705052529251617</v>
+        <v>0.7254352559147605</v>
       </c>
       <c r="C16">
-        <v>0.1272880610034406</v>
+        <v>0.1649475452712892</v>
       </c>
       <c r="D16">
-        <v>0.197451135283103</v>
+        <v>0.2201578034477762</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6333468341880746</v>
+        <v>1.347813674919486</v>
       </c>
       <c r="G16">
-        <v>0.34802840112242</v>
+        <v>0.7319115659167821</v>
       </c>
       <c r="H16">
-        <v>0.3047723307881469</v>
+        <v>0.8361831692876649</v>
       </c>
       <c r="I16">
-        <v>0.3201515233857073</v>
+        <v>0.8567857844548605</v>
       </c>
       <c r="J16">
-        <v>0.07834258907244873</v>
+        <v>0.2016420508566519</v>
       </c>
       <c r="K16">
-        <v>1.453435286133015</v>
+        <v>0.4758335248287437</v>
       </c>
       <c r="L16">
-        <v>0.3811205591569546</v>
+        <v>0.3729871702541061</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.323998482049959</v>
+        <v>3.14167207013098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.634745745559371</v>
+        <v>0.7042452374560924</v>
       </c>
       <c r="C17">
-        <v>0.1261926078514506</v>
+        <v>0.1646256772663435</v>
       </c>
       <c r="D17">
-        <v>0.1908400632514855</v>
+        <v>0.2186465924790326</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6282188276370775</v>
+        <v>1.350166720153638</v>
       </c>
       <c r="G17">
-        <v>0.3463991663760382</v>
+        <v>0.7339207323572481</v>
       </c>
       <c r="H17">
-        <v>0.3064062213077037</v>
+        <v>0.8385429466676371</v>
       </c>
       <c r="I17">
-        <v>0.3231181881501257</v>
+        <v>0.859939411168881</v>
       </c>
       <c r="J17">
-        <v>0.07830093898837376</v>
+        <v>0.2020785493756172</v>
       </c>
       <c r="K17">
-        <v>1.395036972344201</v>
+        <v>0.4574717585765313</v>
       </c>
       <c r="L17">
-        <v>0.3676040355738479</v>
+        <v>0.3697889946137849</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.323825201082542</v>
+        <v>3.150779292963094</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.594339253783318</v>
+        <v>0.6920600458111323</v>
       </c>
       <c r="C18">
-        <v>0.1255662720391868</v>
+        <v>0.1644420749125501</v>
       </c>
       <c r="D18">
-        <v>0.1870504084321993</v>
+        <v>0.2177843317948742</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6254015384342964</v>
+        <v>1.351582936569052</v>
       </c>
       <c r="G18">
-        <v>0.3455622055423149</v>
+        <v>0.7351180580349137</v>
       </c>
       <c r="H18">
-        <v>0.3074043269185864</v>
+        <v>0.839931370845143</v>
       </c>
       <c r="I18">
-        <v>0.3249059288299847</v>
+        <v>0.861792418557183</v>
       </c>
       <c r="J18">
-        <v>0.07828958769193406</v>
+        <v>0.2023368138420878</v>
       </c>
       <c r="K18">
-        <v>1.361462846585169</v>
+        <v>0.4469034028908538</v>
       </c>
       <c r="L18">
-        <v>0.359856312765757</v>
+        <v>0.3679616928921803</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.324059143989189</v>
+        <v>3.156170338634666</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.580663473003796</v>
+        <v>0.6879348502371556</v>
       </c>
       <c r="C19">
-        <v>0.1253548402347988</v>
+        <v>0.1643801737805362</v>
       </c>
       <c r="D19">
-        <v>0.1857694571537394</v>
+        <v>0.2174935818096344</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6244700055346328</v>
+        <v>1.352073234428111</v>
       </c>
       <c r="G19">
-        <v>0.3452957313106424</v>
+        <v>0.7355306148756711</v>
       </c>
       <c r="H19">
-        <v>0.3077521604342408</v>
+        <v>0.8404068182298374</v>
       </c>
       <c r="I19">
-        <v>0.3255250163136374</v>
+        <v>0.8624265355332454</v>
       </c>
       <c r="J19">
-        <v>0.07828788375245921</v>
+        <v>0.2024254954489386</v>
       </c>
       <c r="K19">
-        <v>1.350097533240614</v>
+        <v>0.4433239341024091</v>
       </c>
       <c r="L19">
-        <v>0.3572375247825761</v>
+        <v>0.3673451018317877</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.324194766619129</v>
+        <v>3.158021903452664</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.642226615137503</v>
+        <v>0.7065006737877866</v>
       </c>
       <c r="C20">
-        <v>0.12630883183094</v>
+        <v>0.1646597828246641</v>
       </c>
       <c r="D20">
-        <v>0.1915424808724282</v>
+        <v>0.2188067451844233</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6287509455418672</v>
+        <v>1.34990973516566</v>
       </c>
       <c r="G20">
-        <v>0.3465621682634534</v>
+        <v>0.7337025366797292</v>
       </c>
       <c r="H20">
-        <v>0.306226223065849</v>
+        <v>0.8382885216739169</v>
       </c>
       <c r="I20">
-        <v>0.3227939122344274</v>
+        <v>0.859599653152145</v>
       </c>
       <c r="J20">
-        <v>0.07830406208514518</v>
+        <v>0.2020313381512437</v>
       </c>
       <c r="K20">
-        <v>1.401251950312684</v>
+        <v>0.4594271458636001</v>
       </c>
       <c r="L20">
-        <v>0.3690401096255869</v>
+        <v>0.3701281841494506</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.32380890846369</v>
+        <v>3.149793998977785</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.849480811645776</v>
+        <v>0.7689099527068208</v>
       </c>
       <c r="C21">
-        <v>0.1295593761402927</v>
+        <v>0.1656174012262568</v>
       </c>
       <c r="D21">
-        <v>0.2110963127234271</v>
+        <v>0.223301557970629</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.64474066476172</v>
+        <v>1.343390773849926</v>
       </c>
       <c r="G21">
-        <v>0.3520356775329105</v>
+        <v>0.7280587543187877</v>
       </c>
       <c r="H21">
-        <v>0.3018058897146503</v>
+        <v>0.8315432717920643</v>
       </c>
       <c r="I21">
-        <v>0.314604665393265</v>
+        <v>0.8505691109548437</v>
       </c>
       <c r="J21">
-        <v>0.07851094632931677</v>
+        <v>0.2007930182743749</v>
       </c>
       <c r="K21">
-        <v>1.573324399834945</v>
+        <v>0.5134445310351339</v>
       </c>
       <c r="L21">
-        <v>0.4090220005888625</v>
+        <v>0.3796243451674002</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.326565430714197</v>
+        <v>3.123974856584312</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.985302227573357</v>
+        <v>0.8097159455457472</v>
       </c>
       <c r="C22">
-        <v>0.1317188940524616</v>
+        <v>0.1662566177815847</v>
       </c>
       <c r="D22">
-        <v>0.2240015519487883</v>
+        <v>0.2263002957725462</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6564506521619009</v>
+        <v>1.339688613378222</v>
       </c>
       <c r="G22">
-        <v>0.3565726661837019</v>
+        <v>0.724741637060113</v>
       </c>
       <c r="H22">
-        <v>0.2994660883238609</v>
+        <v>0.8274117280802784</v>
       </c>
       <c r="I22">
-        <v>0.3100216994342482</v>
+        <v>0.8450153498671291</v>
       </c>
       <c r="J22">
-        <v>0.07876433592450738</v>
+        <v>0.2000476738389381</v>
       </c>
       <c r="K22">
-        <v>1.685982315145367</v>
+        <v>0.5486790708943659</v>
       </c>
       <c r="L22">
-        <v>0.4354164584170803</v>
+        <v>0.385938013184898</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.331544285820272</v>
+        <v>3.10846047595399</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.912773854537136</v>
+        <v>0.7879356953819467</v>
       </c>
       <c r="C23">
-        <v>0.130563016116362</v>
+        <v>0.1659142454947897</v>
       </c>
       <c r="D23">
-        <v>0.2171017229849213</v>
+        <v>0.2246942571088084</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6500814057912123</v>
+        <v>1.341613481540485</v>
       </c>
       <c r="G23">
-        <v>0.3540599611262678</v>
+        <v>0.7264780585617174</v>
       </c>
       <c r="H23">
-        <v>0.3006631492933778</v>
+        <v>0.8295914993074405</v>
       </c>
       <c r="I23">
-        <v>0.3123951114136396</v>
+        <v>0.8479476432460693</v>
       </c>
       <c r="J23">
-        <v>0.07861798666618469</v>
+        <v>0.2004396329511273</v>
       </c>
       <c r="K23">
-        <v>1.625833224321184</v>
+        <v>0.5298802956901625</v>
       </c>
       <c r="L23">
-        <v>0.4213037343200909</v>
+        <v>0.3825585276147478</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.328585895298417</v>
+        <v>3.116616401331555</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.638844471867969</v>
+        <v>0.7054809995712787</v>
       </c>
       <c r="C24">
-        <v>0.1262562762280837</v>
+        <v>0.1646443592029456</v>
       </c>
       <c r="D24">
-        <v>0.191224883293188</v>
+        <v>0.2187343197213778</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6285099683027866</v>
+        <v>1.350025720523249</v>
       </c>
       <c r="G24">
-        <v>0.3464881652817908</v>
+        <v>0.7338010514058979</v>
       </c>
       <c r="H24">
-        <v>0.3063074175684477</v>
+        <v>0.8384034482889646</v>
       </c>
       <c r="I24">
-        <v>0.3229402619309489</v>
+        <v>0.8597531333231174</v>
       </c>
       <c r="J24">
-        <v>0.07830261097042523</v>
+        <v>0.2020526595565819</v>
       </c>
       <c r="K24">
-        <v>1.39844215996203</v>
+        <v>0.4585431523786951</v>
       </c>
       <c r="L24">
-        <v>0.3683907888665487</v>
+        <v>0.3699748011243997</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.323815237621986</v>
+        <v>3.150238967000249</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.344552275006549</v>
+        <v>0.6166488331266464</v>
       </c>
       <c r="C25">
-        <v>0.1217528411538851</v>
+        <v>0.1633331269967613</v>
       </c>
       <c r="D25">
-        <v>0.1637982785180725</v>
+        <v>0.2125716118413408</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.610253274609768</v>
+        <v>1.361501456691272</v>
       </c>
       <c r="G25">
-        <v>0.34211375737803</v>
+        <v>0.7432945733900667</v>
       </c>
       <c r="H25">
-        <v>0.3146106249990481</v>
+        <v>0.8490994931517974</v>
       </c>
       <c r="I25">
-        <v>0.3374037356067028</v>
+        <v>0.8739832081630396</v>
       </c>
       <c r="J25">
-        <v>0.07844123635108247</v>
+        <v>0.2040680184820687</v>
       </c>
       <c r="K25">
-        <v>1.153705914290526</v>
+        <v>0.3813238568168345</v>
       </c>
       <c r="L25">
-        <v>0.3123195096036255</v>
+        <v>0.3568685217386758</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.331317032178134</v>
+        <v>3.19234917665402</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5513548631581955</v>
+        <v>1.128430024764299</v>
       </c>
       <c r="C2">
-        <v>0.1624190934874861</v>
+        <v>0.1185496873220586</v>
       </c>
       <c r="D2">
-        <v>0.2082656351497434</v>
+        <v>0.1439616387718701</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.372022138432399</v>
+        <v>0.6007066340534877</v>
       </c>
       <c r="G2">
-        <v>0.7516564130985017</v>
+        <v>0.3418155714036999</v>
       </c>
       <c r="H2">
-        <v>0.8580028273867129</v>
+        <v>0.3224828260587387</v>
       </c>
       <c r="I2">
-        <v>0.885749898241535</v>
+        <v>0.3504905056483381</v>
       </c>
       <c r="J2">
-        <v>0.2057898918912713</v>
+        <v>0.07892538224752954</v>
       </c>
       <c r="K2">
-        <v>0.3242496028636594</v>
+        <v>0.9736168956783615</v>
       </c>
       <c r="L2">
-        <v>0.3476246894521893</v>
+        <v>0.2717550717245985</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.228388186044896</v>
+        <v>1.346691370832247</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5071859174208839</v>
+        <v>0.9821074719067724</v>
       </c>
       <c r="C3">
-        <v>0.1618322943610764</v>
+        <v>0.1164449563214447</v>
       </c>
       <c r="D3">
-        <v>0.2054934232637038</v>
+        <v>0.1307133195778931</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.380446964905893</v>
+        <v>0.5964740865153502</v>
       </c>
       <c r="G3">
-        <v>0.7581792986712941</v>
+        <v>0.3432787826731314</v>
       </c>
       <c r="H3">
-        <v>0.8646797307768637</v>
+        <v>0.3288468903861386</v>
       </c>
       <c r="I3">
-        <v>0.8945297417896505</v>
+        <v>0.3607777639300203</v>
       </c>
       <c r="J3">
-        <v>0.2071058191985919</v>
+        <v>0.07947796695616205</v>
       </c>
       <c r="K3">
-        <v>0.2854423381356241</v>
+        <v>0.8514760543077671</v>
       </c>
       <c r="L3">
-        <v>0.3416159085320345</v>
+        <v>0.2446479909092858</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.255956297056727</v>
+        <v>1.362778258413556</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4801105707411466</v>
+        <v>0.8922752932096785</v>
       </c>
       <c r="C4">
-        <v>0.1614883107873837</v>
+        <v>0.1151839970137232</v>
       </c>
       <c r="D4">
-        <v>0.2038638569240305</v>
+        <v>0.1226665904825808</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.386259559993611</v>
+        <v>0.5949188608610569</v>
       </c>
       <c r="G4">
-        <v>0.7626067025994772</v>
+        <v>0.3449494563803199</v>
       </c>
       <c r="H4">
-        <v>0.8690971644646552</v>
+        <v>0.3332408255393915</v>
       </c>
       <c r="I4">
-        <v>0.9003183030509945</v>
+        <v>0.3677617711825363</v>
       </c>
       <c r="J4">
-        <v>0.2079874840256437</v>
+        <v>0.0799236539519228</v>
       </c>
       <c r="K4">
-        <v>0.2615550756848108</v>
+        <v>0.7763876696091359</v>
       </c>
       <c r="L4">
-        <v>0.3380536345962497</v>
+        <v>0.2281734456145159</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.274435550144787</v>
+        <v>1.375302551842111</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4690892446665771</v>
+        <v>0.8556626576384758</v>
       </c>
       <c r="C5">
-        <v>0.1613522728317065</v>
+        <v>0.1146778712219003</v>
       </c>
       <c r="D5">
-        <v>0.2032181533383124</v>
+        <v>0.1194084230399284</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.388789268338662</v>
+        <v>0.5945390275266007</v>
       </c>
       <c r="G5">
-        <v>0.7645171223081135</v>
+        <v>0.3458174803081064</v>
       </c>
       <c r="H5">
-        <v>0.870977301197378</v>
+        <v>0.3351506724827686</v>
       </c>
       <c r="I5">
-        <v>0.9027772466252273</v>
+        <v>0.3707711068799355</v>
       </c>
       <c r="J5">
-        <v>0.2083653249548796</v>
+        <v>0.08013141555960956</v>
       </c>
       <c r="K5">
-        <v>0.2518065839901311</v>
+        <v>0.7457589500316573</v>
       </c>
       <c r="L5">
-        <v>0.3366341325845781</v>
+        <v>0.2214998067798319</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.282356555811461</v>
+        <v>1.381050750276813</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4672599187930473</v>
+        <v>0.8495826151027757</v>
       </c>
       <c r="C6">
-        <v>0.1613299348286077</v>
+        <v>0.1145942915994951</v>
       </c>
       <c r="D6">
-        <v>0.2031120466508298</v>
+        <v>0.118868639320624</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.389219055103766</v>
+        <v>0.5944910518393485</v>
       </c>
       <c r="G6">
-        <v>0.7648407618370925</v>
+        <v>0.3459727232932437</v>
       </c>
       <c r="H6">
-        <v>0.871294330606041</v>
+        <v>0.3354749195083926</v>
       </c>
       <c r="I6">
-        <v>0.9031915971237083</v>
+        <v>0.3712805370336589</v>
       </c>
       <c r="J6">
-        <v>0.2084291866700454</v>
+        <v>0.08016747553264025</v>
       </c>
       <c r="K6">
-        <v>0.2501870153295442</v>
+        <v>0.7406711160547559</v>
       </c>
       <c r="L6">
-        <v>0.3364003727245688</v>
+        <v>0.2203939857138408</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.283695427978799</v>
+        <v>1.382043555406824</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4799618831181078</v>
+        <v>0.8917815539715832</v>
       </c>
       <c r="C7">
-        <v>0.1614864593302272</v>
+        <v>0.1151771401458035</v>
       </c>
       <c r="D7">
-        <v>0.2038550742675511</v>
+        <v>0.1226225663756253</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.386293024304784</v>
+        <v>0.5949127210878942</v>
       </c>
       <c r="G7">
-        <v>0.7626320370946118</v>
+        <v>0.3449604138630278</v>
       </c>
       <c r="H7">
-        <v>0.869122196628112</v>
+        <v>0.3332661033313116</v>
       </c>
       <c r="I7">
-        <v>0.900351060023489</v>
+        <v>0.3678017008704053</v>
       </c>
       <c r="J7">
-        <v>0.2079925045536299</v>
+        <v>0.07992635084921673</v>
       </c>
       <c r="K7">
-        <v>0.2614236608250451</v>
+        <v>0.7759747276020619</v>
       </c>
       <c r="L7">
-        <v>0.3380343602643308</v>
+        <v>0.2280832846269618</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.274540793947253</v>
+        <v>1.375377492013683</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.536116681562163</v>
+        <v>1.07797088146134</v>
       </c>
       <c r="C8">
-        <v>0.162213400534192</v>
+        <v>0.1178173684557535</v>
       </c>
       <c r="D8">
-        <v>0.2072947744558888</v>
+        <v>0.13937469321138</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.374794344372184</v>
+        <v>0.599025444789163</v>
       </c>
       <c r="G8">
-        <v>0.7538178618627782</v>
+        <v>0.3421555169584778</v>
       </c>
       <c r="H8">
-        <v>0.8602391187733289</v>
+        <v>0.3245743533505276</v>
       </c>
       <c r="I8">
-        <v>0.8886946773240929</v>
+        <v>0.3538961874287843</v>
       </c>
       <c r="J8">
-        <v>0.2062283480359426</v>
+        <v>0.07909345358797992</v>
       </c>
       <c r="K8">
-        <v>0.3108816092639017</v>
+        <v>0.9315182958532944</v>
       </c>
       <c r="L8">
-        <v>0.3455265805878582</v>
+        <v>0.2623717357703867</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.2375716163709</v>
+        <v>1.35167578709418</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6465559809495005</v>
+        <v>1.44356857727945</v>
       </c>
       <c r="C9">
-        <v>0.1637669042175958</v>
+        <v>0.1232517239832021</v>
       </c>
       <c r="D9">
-        <v>0.2146117495458526</v>
+        <v>0.1729775827754452</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.357314480962657</v>
+        <v>0.6157712107007072</v>
       </c>
       <c r="G9">
-        <v>0.7398836024855342</v>
+        <v>0.3431114057313991</v>
       </c>
       <c r="H9">
-        <v>0.8453370842202048</v>
+        <v>0.3115310699431859</v>
       </c>
       <c r="I9">
-        <v>0.86898969753668</v>
+        <v>0.3321389275752509</v>
       </c>
       <c r="J9">
-        <v>0.2033522471731359</v>
+        <v>0.07833327074537877</v>
       </c>
       <c r="K9">
-        <v>0.4073702464062308</v>
+        <v>1.236106131950123</v>
       </c>
       <c r="L9">
-        <v>0.3612205951800149</v>
+        <v>0.3310861308162885</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.177382950138593</v>
+        <v>1.327193671414321</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7278535343180295</v>
+        <v>1.713079646283234</v>
       </c>
       <c r="C10">
-        <v>0.1649844788054153</v>
+        <v>0.127413572481629</v>
       </c>
       <c r="D10">
-        <v>0.2203311820310034</v>
+        <v>0.198207283991735</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.347553683468803</v>
+        <v>0.6339501626733224</v>
       </c>
       <c r="G10">
-        <v>0.7316879574948771</v>
+        <v>0.3482281015639828</v>
       </c>
       <c r="H10">
-        <v>0.8359181206427095</v>
+        <v>0.3045938952431229</v>
       </c>
       <c r="I10">
-        <v>0.8564312346105325</v>
+        <v>0.3198241823423054</v>
       </c>
       <c r="J10">
-        <v>0.2015932186799105</v>
+        <v>0.07834906928372476</v>
       </c>
       <c r="K10">
-        <v>0.4779277429140905</v>
+        <v>1.460101190667984</v>
       </c>
       <c r="L10">
-        <v>0.3733537536396909</v>
+        <v>0.3826665850429123</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.140653576254991</v>
+        <v>1.32406414313256</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7648647717423103</v>
+        <v>1.836030873143898</v>
       </c>
       <c r="C11">
-        <v>0.1655545665190132</v>
+        <v>0.1293467288170547</v>
       </c>
       <c r="D11">
-        <v>0.2230067263702011</v>
+        <v>0.2098221063754835</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.343780635219616</v>
+        <v>0.6436324554475306</v>
       </c>
       <c r="G11">
-        <v>0.7284028159038058</v>
+        <v>0.3516261600064894</v>
       </c>
       <c r="H11">
-        <v>0.8319642104098719</v>
+        <v>0.3020607925708845</v>
       </c>
       <c r="I11">
-        <v>0.8511339788050307</v>
+        <v>0.3150911997959547</v>
       </c>
       <c r="J11">
-        <v>0.2008695286905073</v>
+        <v>0.078490747945132</v>
       </c>
       <c r="K11">
-        <v>0.5099482162065954</v>
+        <v>1.562163816122478</v>
       </c>
       <c r="L11">
-        <v>0.3790027283535835</v>
+        <v>0.4064162774390212</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.125568625222158</v>
+        <v>1.326204949629727</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.778883274749802</v>
+        <v>1.882652051553237</v>
       </c>
       <c r="C12">
-        <v>0.1657727408642771</v>
+        <v>0.1300847717576161</v>
       </c>
       <c r="D12">
-        <v>0.2240303912713557</v>
+        <v>0.21424180867659</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.342447668119625</v>
+        <v>0.6475140221386866</v>
       </c>
       <c r="G12">
-        <v>0.7272225258208351</v>
+        <v>0.3530767276255418</v>
       </c>
       <c r="H12">
-        <v>0.8305144557999924</v>
+        <v>0.301195399548611</v>
       </c>
       <c r="I12">
-        <v>0.8491877667926104</v>
+        <v>0.3134303265024414</v>
       </c>
       <c r="J12">
-        <v>0.200606459650448</v>
+        <v>0.07856459912753877</v>
       </c>
       <c r="K12">
-        <v>0.5220619072255772</v>
+        <v>1.600845965349805</v>
       </c>
       <c r="L12">
-        <v>0.3811603097088465</v>
+        <v>0.4154547195087446</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.120089603774503</v>
+        <v>1.327558130385768</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7758640144096489</v>
+        <v>1.872608379677928</v>
       </c>
       <c r="C13">
-        <v>0.1657256516378141</v>
+        <v>0.1299255498703218</v>
       </c>
       <c r="D13">
-        <v>0.2238094617371189</v>
+        <v>0.2132889671883618</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.342730487686566</v>
+        <v>0.646668293095118</v>
       </c>
       <c r="G13">
-        <v>0.7274738882992153</v>
+        <v>0.3527568737180644</v>
       </c>
       <c r="H13">
-        <v>0.8308245746383704</v>
+        <v>0.3013775327299086</v>
       </c>
       <c r="I13">
-        <v>0.8496042616720025</v>
+        <v>0.3137820746358422</v>
       </c>
       <c r="J13">
-        <v>0.200662628468411</v>
+        <v>0.07854778130823092</v>
       </c>
       <c r="K13">
-        <v>0.5194535426934124</v>
+        <v>1.592513437551133</v>
       </c>
       <c r="L13">
-        <v>0.38069481899322</v>
+        <v>0.4135060655468408</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.121259234004285</v>
+        <v>1.327242075083035</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7660180247583526</v>
+        <v>1.839865106987929</v>
       </c>
       <c r="C14">
-        <v>0.1655724700736414</v>
+        <v>0.1294073262758033</v>
       </c>
       <c r="D14">
-        <v>0.2230907342076307</v>
+        <v>0.2101852790163719</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.343669051934533</v>
+        <v>0.6439474125091067</v>
       </c>
       <c r="G14">
-        <v>0.7283044356249988</v>
+        <v>0.351742157767859</v>
       </c>
       <c r="H14">
-        <v>0.8318439865277796</v>
+        <v>0.3019876899673051</v>
       </c>
       <c r="I14">
-        <v>0.8509726655682925</v>
+        <v>0.3149518870413885</v>
       </c>
       <c r="J14">
-        <v>0.2008476659913576</v>
+        <v>0.07849641377556082</v>
       </c>
       <c r="K14">
-        <v>0.5109450570872411</v>
+        <v>1.565345497509497</v>
       </c>
       <c r="L14">
-        <v>0.3791798654518601</v>
+        <v>0.4071589514859397</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.125113187423338</v>
+        <v>1.326305226267522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7599874537105222</v>
+        <v>1.819817379531486</v>
       </c>
       <c r="C15">
-        <v>0.165478939690189</v>
+        <v>0.1290906885962002</v>
       </c>
       <c r="D15">
-        <v>0.2226518562427202</v>
+        <v>0.2082870197455122</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.344256422139331</v>
+        <v>0.6423091728297123</v>
       </c>
       <c r="G15">
-        <v>0.7288214684240373</v>
+        <v>0.3511422488118328</v>
       </c>
       <c r="H15">
-        <v>0.8324745903753694</v>
+        <v>0.3023737813688072</v>
       </c>
       <c r="I15">
-        <v>0.8518186320871806</v>
+        <v>0.3156857408983136</v>
       </c>
       <c r="J15">
-        <v>0.2009624355877264</v>
+        <v>0.07846760675186104</v>
       </c>
       <c r="K15">
-        <v>0.5057318087491467</v>
+        <v>1.548708968701504</v>
       </c>
       <c r="L15">
-        <v>0.3782543080820773</v>
+        <v>0.4032771342851049</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.127504226891659</v>
+        <v>1.325802947926292</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7254352559147605</v>
+        <v>1.705052529251731</v>
       </c>
       <c r="C16">
-        <v>0.1649475452712892</v>
+        <v>0.1272880610038882</v>
       </c>
       <c r="D16">
-        <v>0.2201578034477762</v>
+        <v>0.1974511352830177</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.347813674919486</v>
+        <v>0.6333468341880675</v>
       </c>
       <c r="G16">
-        <v>0.7319115659167821</v>
+        <v>0.3480284011224768</v>
       </c>
       <c r="H16">
-        <v>0.8361831692876649</v>
+        <v>0.3047723307882677</v>
       </c>
       <c r="I16">
-        <v>0.8567857844548605</v>
+        <v>0.320151523385718</v>
       </c>
       <c r="J16">
-        <v>0.2016420508566519</v>
+        <v>0.07834258907243097</v>
       </c>
       <c r="K16">
-        <v>0.4758335248287437</v>
+        <v>1.453435286133072</v>
       </c>
       <c r="L16">
-        <v>0.3729871702541061</v>
+        <v>0.3811205591570399</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.14167207013098</v>
+        <v>1.32399848204993</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7042452374560924</v>
+        <v>1.634745745559258</v>
       </c>
       <c r="C17">
-        <v>0.1646256772663435</v>
+        <v>0.1261926078512161</v>
       </c>
       <c r="D17">
-        <v>0.2186465924790326</v>
+        <v>0.190840063251656</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.350166720153638</v>
+        <v>0.6282188276370988</v>
       </c>
       <c r="G17">
-        <v>0.7339207323572481</v>
+        <v>0.346399166376095</v>
       </c>
       <c r="H17">
-        <v>0.8385429466676371</v>
+        <v>0.3064062213077179</v>
       </c>
       <c r="I17">
-        <v>0.859939411168881</v>
+        <v>0.3231181881501257</v>
       </c>
       <c r="J17">
-        <v>0.2020785493756172</v>
+        <v>0.07830093898834534</v>
       </c>
       <c r="K17">
-        <v>0.4574717585765313</v>
+        <v>1.395036972344087</v>
       </c>
       <c r="L17">
-        <v>0.3697889946137849</v>
+        <v>0.3676040355737911</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.150779292963094</v>
+        <v>1.323825201082485</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6920600458111323</v>
+        <v>1.594339253783318</v>
       </c>
       <c r="C18">
-        <v>0.1644420749125501</v>
+        <v>0.1255662720394071</v>
       </c>
       <c r="D18">
-        <v>0.2177843317948742</v>
+        <v>0.1870504084320856</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.351582936569052</v>
+        <v>0.6254015384342964</v>
       </c>
       <c r="G18">
-        <v>0.7351180580349137</v>
+        <v>0.3455622055423149</v>
       </c>
       <c r="H18">
-        <v>0.839931370845143</v>
+        <v>0.3074043269185864</v>
       </c>
       <c r="I18">
-        <v>0.861792418557183</v>
+        <v>0.3249059288299598</v>
       </c>
       <c r="J18">
-        <v>0.2023368138420878</v>
+        <v>0.07828958769188432</v>
       </c>
       <c r="K18">
-        <v>0.4469034028908538</v>
+        <v>1.361462846585141</v>
       </c>
       <c r="L18">
-        <v>0.3679616928921803</v>
+        <v>0.3598563127658423</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.156170338634666</v>
+        <v>1.32405914398916</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6879348502371556</v>
+        <v>1.580663473003909</v>
       </c>
       <c r="C19">
-        <v>0.1643801737805362</v>
+        <v>0.1253548402349693</v>
       </c>
       <c r="D19">
-        <v>0.2174935818096344</v>
+        <v>0.1857694571535831</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.352073234428111</v>
+        <v>0.6244700055346115</v>
       </c>
       <c r="G19">
-        <v>0.7355306148756711</v>
+        <v>0.3452957313106921</v>
       </c>
       <c r="H19">
-        <v>0.8404068182298374</v>
+        <v>0.3077521604342479</v>
       </c>
       <c r="I19">
-        <v>0.8624265355332454</v>
+        <v>0.3255250163136232</v>
       </c>
       <c r="J19">
-        <v>0.2024254954489386</v>
+        <v>0.07828788375249118</v>
       </c>
       <c r="K19">
-        <v>0.4433239341024091</v>
+        <v>1.350097533240586</v>
       </c>
       <c r="L19">
-        <v>0.3673451018317877</v>
+        <v>0.3572375247825335</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.158021903452664</v>
+        <v>1.324194766619129</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7065006737877866</v>
+        <v>1.642226615137645</v>
       </c>
       <c r="C20">
-        <v>0.1646597828246641</v>
+        <v>0.12630883183094</v>
       </c>
       <c r="D20">
-        <v>0.2188067451844233</v>
+        <v>0.1915424808722008</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.34990973516566</v>
+        <v>0.628750945541853</v>
       </c>
       <c r="G20">
-        <v>0.7337025366797292</v>
+        <v>0.3465621682635458</v>
       </c>
       <c r="H20">
-        <v>0.8382885216739169</v>
+        <v>0.306226223065849</v>
       </c>
       <c r="I20">
-        <v>0.859599653152145</v>
+        <v>0.3227939122344239</v>
       </c>
       <c r="J20">
-        <v>0.2020313381512437</v>
+        <v>0.07830406208513097</v>
       </c>
       <c r="K20">
-        <v>0.4594271458636001</v>
+        <v>1.401251950312655</v>
       </c>
       <c r="L20">
-        <v>0.3701281841494506</v>
+        <v>0.3690401096255869</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.149793998977785</v>
+        <v>1.323808908463647</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7689099527068208</v>
+        <v>1.849480811645805</v>
       </c>
       <c r="C21">
-        <v>0.1656174012262568</v>
+        <v>0.1295593761400724</v>
       </c>
       <c r="D21">
-        <v>0.223301557970629</v>
+        <v>0.2110963127235124</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.343390773849926</v>
+        <v>0.6447406647617058</v>
       </c>
       <c r="G21">
-        <v>0.7280587543187877</v>
+        <v>0.3520356775329105</v>
       </c>
       <c r="H21">
-        <v>0.8315432717920643</v>
+        <v>0.3018058897146503</v>
       </c>
       <c r="I21">
-        <v>0.8505691109548437</v>
+        <v>0.3146046653932686</v>
       </c>
       <c r="J21">
-        <v>0.2007930182743749</v>
+        <v>0.07851094632926348</v>
       </c>
       <c r="K21">
-        <v>0.5134445310351339</v>
+        <v>1.573324399834974</v>
       </c>
       <c r="L21">
-        <v>0.3796243451674002</v>
+        <v>0.4090220005888767</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.123974856584312</v>
+        <v>1.326565430714197</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8097159455457472</v>
+        <v>1.985302227573357</v>
       </c>
       <c r="C22">
-        <v>0.1662566177815847</v>
+        <v>0.1317188940524474</v>
       </c>
       <c r="D22">
-        <v>0.2263002957725462</v>
+        <v>0.2240015519489589</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.339688613378222</v>
+        <v>0.6564506521619009</v>
       </c>
       <c r="G22">
-        <v>0.724741637060113</v>
+        <v>0.3565726661837445</v>
       </c>
       <c r="H22">
-        <v>0.8274117280802784</v>
+        <v>0.299466088323733</v>
       </c>
       <c r="I22">
-        <v>0.8450153498671291</v>
+        <v>0.3100216994342375</v>
       </c>
       <c r="J22">
-        <v>0.2000476738389381</v>
+        <v>0.07876433592454291</v>
       </c>
       <c r="K22">
-        <v>0.5486790708943659</v>
+        <v>1.685982315145367</v>
       </c>
       <c r="L22">
-        <v>0.385938013184898</v>
+        <v>0.4354164584170235</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.10846047595399</v>
+        <v>1.331544285820286</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7879356953819467</v>
+        <v>1.912773854536994</v>
       </c>
       <c r="C23">
-        <v>0.1659142454947897</v>
+        <v>0.1305630161165254</v>
       </c>
       <c r="D23">
-        <v>0.2246942571088084</v>
+        <v>0.2171017229847934</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.341613481540485</v>
+        <v>0.6500814057912123</v>
       </c>
       <c r="G23">
-        <v>0.7264780585617174</v>
+        <v>0.3540599611262607</v>
       </c>
       <c r="H23">
-        <v>0.8295914993074405</v>
+        <v>0.3006631492933778</v>
       </c>
       <c r="I23">
-        <v>0.8479476432460693</v>
+        <v>0.3123951114136432</v>
       </c>
       <c r="J23">
-        <v>0.2004396329511273</v>
+        <v>0.07861798666623798</v>
       </c>
       <c r="K23">
-        <v>0.5298802956901625</v>
+        <v>1.625833224321326</v>
       </c>
       <c r="L23">
-        <v>0.3825585276147478</v>
+        <v>0.4213037343201194</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.116616401331555</v>
+        <v>1.328585895298389</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7054809995712787</v>
+        <v>1.638844471867827</v>
       </c>
       <c r="C24">
-        <v>0.1646443592029456</v>
+        <v>0.1262562762281618</v>
       </c>
       <c r="D24">
-        <v>0.2187343197213778</v>
+        <v>0.1912248832932448</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.350025720523249</v>
+        <v>0.6285099683027795</v>
       </c>
       <c r="G24">
-        <v>0.7338010514058979</v>
+        <v>0.3464881652817908</v>
       </c>
       <c r="H24">
-        <v>0.8384034482889646</v>
+        <v>0.3063074175684477</v>
       </c>
       <c r="I24">
-        <v>0.8597531333231174</v>
+        <v>0.3229402619309418</v>
       </c>
       <c r="J24">
-        <v>0.2020526595565819</v>
+        <v>0.07830261097044655</v>
       </c>
       <c r="K24">
-        <v>0.4585431523786951</v>
+        <v>1.398442159962059</v>
       </c>
       <c r="L24">
-        <v>0.3699748011243997</v>
+        <v>0.3683907888665061</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.150238967000249</v>
+        <v>1.323815237621972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6166488331266464</v>
+        <v>1.344552275006492</v>
       </c>
       <c r="C25">
-        <v>0.1633331269967613</v>
+        <v>0.1217528411534374</v>
       </c>
       <c r="D25">
-        <v>0.2125716118413408</v>
+        <v>0.1637982785183141</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.361501456691272</v>
+        <v>0.6102532746097395</v>
       </c>
       <c r="G25">
-        <v>0.7432945733900667</v>
+        <v>0.3421137573779447</v>
       </c>
       <c r="H25">
-        <v>0.8490994931517974</v>
+        <v>0.3146106249991476</v>
       </c>
       <c r="I25">
-        <v>0.8739832081630396</v>
+        <v>0.3374037356066921</v>
       </c>
       <c r="J25">
-        <v>0.2040680184820687</v>
+        <v>0.07844123635096167</v>
       </c>
       <c r="K25">
-        <v>0.3813238568168345</v>
+        <v>1.153705914290583</v>
       </c>
       <c r="L25">
-        <v>0.3568685217386758</v>
+        <v>0.3123195096036682</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.19234917665402</v>
+        <v>1.33131703217812</v>
       </c>
     </row>
   </sheetData>
